--- a/tests/data/output/一级测试用例-11001_result.xlsx
+++ b/tests/data/output/一级测试用例-11001_result.xlsx
@@ -477,7 +477,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"夹霞","id_card_no":"433124197305231856","phone":"15507047832"}</t>
+          <t>{"user_name":"厉芳","id_card_no":"371428197106195884","phone":"13186774234"}</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"余萍","id_card_no":"610125196604130337","phone":"18094773685"}</t>
+          <t>{"user_name":"南莉","id_card_no":"652201195202036769","phone":"13745089679"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-11001_result.xlsx
+++ b/tests/data/output/一级测试用例-11001_result.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>keyValue</t>
+          <t>key_value_main</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"厉芳","id_card_no":"371428197106195884","phone":"13186774234"}</t>
+          <t>{"user_name":"秋建军","id_card_no":"130729198205031609","phone":"13383192313"}</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"南莉","id_card_no":"652201195202036769","phone":"13745089679"}</t>
+          <t>{"user_name":"连宁","id_card_no":"341525195106095084","phone":"15890126198"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-11001_result.xlsx
+++ b/tests/data/output/一级测试用例-11001_result.xlsx
@@ -477,7 +477,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"秋建军","id_card_no":"130729198205031609","phone":"13383192313"}</t>
+          <t>{"user_name":"桑涛","id_card_no":"230603198704191695","phone":"18986798358"}</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"连宁","id_card_no":"341525195106095084","phone":"15890126198"}</t>
+          <t>{"user_name":"诸淑华","id_card_no":"445101193005230297","phone":"13469248524"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-11001_result.xlsx
+++ b/tests/data/output/一级测试用例-11001_result.xlsx
@@ -477,7 +477,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"桑涛","id_card_no":"230603198704191695","phone":"18986798358"}</t>
+          <t>{"user_name":"堵丽华","id_card_no":"330200199507044108","phone":"13218318881"}</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"诸淑华","id_card_no":"445101193005230297","phone":"13469248524"}</t>
+          <t>{"user_name":"拓丹丹","id_card_no":"210301193411206915","phone":"13968466164"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-11001_result.xlsx
+++ b/tests/data/output/一级测试用例-11001_result.xlsx
@@ -477,7 +477,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"堵丽华","id_card_no":"330200199507044108","phone":"13218318881"}</t>
+          <t>{"user_name":"扈秀英","id_card_no":"130129196409140928","phone":"15872346579"}</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"拓丹丹","id_card_no":"210301193411206915","phone":"13968466164"}</t>
+          <t>{"user_name":"益凤英","id_card_no":"341723195310107087","phone":"18196160553"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-11001_result.xlsx
+++ b/tests/data/output/一级测试用例-11001_result.xlsx
@@ -477,7 +477,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"扈秀英","id_card_no":"130129196409140928","phone":"15872346579"}</t>
+          <t>{"user_name":"孟红梅","id_card_no":"632802194612277312","phone":"15233523975"}</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"益凤英","id_card_no":"341723195310107087","phone":"18196160553"}</t>
+          <t>{"user_name":"阙秀兰","id_card_no":"520525197101090454","phone":"15128106514"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-11001_result.xlsx
+++ b/tests/data/output/一级测试用例-11001_result.xlsx
@@ -477,7 +477,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"孟红梅","id_card_no":"632802194612277312","phone":"15233523975"}</t>
+          <t>{"user_name":"钟畅","id_card_no":"220402200003037530","phone":"13002376811"}</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"阙秀兰","id_card_no":"520525197101090454","phone":"15128106514"}</t>
+          <t>{"user_name":"查梅","id_card_no":"110200195708105393","phone":"13602515618"}</t>
         </is>
       </c>
     </row>

--- a/tests/data/output/一级测试用例-11001_result.xlsx
+++ b/tests/data/output/一级测试用例-11001_result.xlsx
@@ -477,7 +477,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>{"user_name":"钟畅","id_card_no":"220402200003037530","phone":"13002376811"}</t>
+          <t>{"user_name":"扈波","id_card_no":"620921192909226913","phone":"15033127385"}</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>{"user_name":"查梅","id_card_no":"110200195708105393","phone":"13602515618"}</t>
+          <t>{"user_name":"滕明","id_card_no":"610902194011169906","phone":"15212842924"}</t>
         </is>
       </c>
     </row>
